--- a/data/trans_camb/P74B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,43</t>
+          <t>0,0; 19,77</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,19</t>
+          <t>0,0; 36,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 26,69</t>
+          <t>-42,02; 29,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-57,88; 8,65</t>
+          <t>-57,65; 8,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 18,36</t>
+          <t>-2,54; 20,24</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 17,16</t>
+          <t>-2,3; 18,49</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,86</t>
+          <t>-4,92; 0,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,94</t>
+          <t>-1,66; 6,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,9; 37,37</t>
+          <t>15,14; 35,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 27,91</t>
+          <t>6,23; 26,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 13,24</t>
+          <t>3,44; 13,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 9,59</t>
+          <t>1,26; 9,9</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,59; 993,3</t>
+          <t>-59,97; 981,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,11; 1936,48</t>
+          <t>40,17; 1978,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 1513,25</t>
+          <t>0,75; 1346,96</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,5</t>
+          <t>1,49; 6,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 7,86</t>
+          <t>1,62; 7,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 1,45</t>
+          <t>-28,33; 2,07</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 3,0</t>
+          <t>-25,94; 5,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 7,3</t>
+          <t>-0,32; 7,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,35</t>
+          <t>0,39; 8,64</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,18; 8,51</t>
+          <t>-68,53; 12,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 19,33</t>
+          <t>-62,71; 30,77</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 223,64</t>
+          <t>-11,52; 226,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 249,46</t>
+          <t>3,15; 268,35</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,55</t>
+          <t>-1,52; 4,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 6,42</t>
+          <t>-0,17; 6,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,74; -13,19</t>
+          <t>-42,5; -13,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-55,86; -29,25</t>
+          <t>-54,81; -28,56</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 7,1</t>
+          <t>-4,22; 6,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 2,59</t>
+          <t>-7,84; 2,31</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 402,12</t>
+          <t>-49,63; 388,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 612,32</t>
+          <t>-24,72; 544,7</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,34; -20,57</t>
+          <t>-53,68; -21,51</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,19; -46,03</t>
+          <t>-71,05; -46,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 55,63</t>
+          <t>-23,59; 51,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 20,82</t>
+          <t>-43,24; 18,23</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 5,88</t>
+          <t>-4,69; 5,59</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 5,4</t>
+          <t>-4,42; 5,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 4,95</t>
+          <t>-8,64; 5,06</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 1,24</t>
+          <t>-14,06; 1,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 11,26</t>
+          <t>-1,07; 11,76</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 8,53</t>
+          <t>-4,14; 8,67</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 100,52</t>
+          <t>-44,58; 94,35</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 94,14</t>
+          <t>-42,2; 103,54</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 5,82</t>
+          <t>-9,68; 5,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 1,5</t>
+          <t>-15,38; 1,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 31,68</t>
+          <t>-2,68; 34,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 24,08</t>
+          <t>-10,46; 25,29</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,1; 18,54</t>
+          <t>5,63; 18,68</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,23</t>
+          <t>3,11; 15,13</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 4,99</t>
+          <t>-0,72; 5,43</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,64</t>
+          <t>0,82; 6,51</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,27</t>
+          <t>3,04; 13,56</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,57; 13,67</t>
+          <t>3,03; 13,74</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>28,05; 114,69</t>
+          <t>25,94; 115,03</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>13,06; 93,57</t>
+          <t>14,75; 93,29</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,38</t>
+          <t>-0,74; 5,84</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,06; 7,17</t>
+          <t>0,87; 7,12</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,59; 26,48</t>
+          <t>5,22; 26,7</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>6,35; 26,96</t>
+          <t>5,48; 27,24</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,36</t>
+          <t>2,53; 7,47</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,44</t>
+          <t>2,81; 7,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -10,15</t>
+          <t>-19,32; -10,06</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -11,76</t>
+          <t>-20,81; -11,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,31</t>
+          <t>1,74; 7,3</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,06</t>
+          <t>0,61; 6,22</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>29,53; 110,76</t>
+          <t>28,61; 110,49</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>30,53; 111,31</t>
+          <t>33,35; 112,09</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -12,58</t>
+          <t>-22,71; -12,51</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -14,62</t>
+          <t>-24,64; -14,52</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>4,97; 25,24</t>
+          <t>5,63; 25,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,68; 21,29</t>
+          <t>1,84; 21,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Edad-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,77</t>
+          <t>0,0; 20,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,57</t>
+          <t>0,0; 37,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,02; 29,33</t>
+          <t>-39,38; 26,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-57,65; 8,62</t>
+          <t>-51,49; 8,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 20,24</t>
+          <t>-2,48; 19,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 18,49</t>
+          <t>-1,77; 18,2</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 0,85</t>
+          <t>-4,67; 0,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 6,88</t>
+          <t>-1,21; 7,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 35,75</t>
+          <t>15,28; 36,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,23; 26,41</t>
+          <t>5,52; 27,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,44; 13,73</t>
+          <t>3,67; 13,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,26; 9,9</t>
+          <t>0,9; 9,78</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,97; 981,18</t>
+          <t>-54,82; 998,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>40,17; 1978,46</t>
+          <t>36,47; 1945,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1346,96</t>
+          <t>-12,58; 1503,18</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,4</t>
+          <t>1,3; 6,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,62; 7,41</t>
+          <t>1,75; 7,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,33; 2,07</t>
+          <t>-30,39; 2,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-25,94; 5,15</t>
+          <t>-26,99; 4,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 7,22</t>
+          <t>-0,15; 7,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,39; 8,64</t>
+          <t>1,04; 8,73</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-68,53; 12,08</t>
+          <t>-69,01; 13,16</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-62,71; 30,77</t>
+          <t>-64,65; 22,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 226,11</t>
+          <t>-8,33; 238,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,15; 268,35</t>
+          <t>13,05; 274,32</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 4,58</t>
+          <t>-1,2; 4,41</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 6,46</t>
+          <t>0,07; 6,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-42,5; -13,97</t>
+          <t>-41,64; -14,11</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-54,81; -28,56</t>
+          <t>-54,98; -28,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 6,85</t>
+          <t>-4,34; 6,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 2,31</t>
+          <t>-7,74; 2,56</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-49,63; 388,43</t>
+          <t>-44,4; 430,44</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-24,72; 544,7</t>
+          <t>-14,35; 561,33</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,68; -21,51</t>
+          <t>-53,47; -22,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-71,05; -46,1</t>
+          <t>-71,21; -46,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,59; 51,94</t>
+          <t>-24,4; 50,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 18,23</t>
+          <t>-42,75; 20,87</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,69; 5,59</t>
+          <t>-4,74; 5,87</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 5,89</t>
+          <t>-4,51; 5,47</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 5,06</t>
+          <t>-9,25; 4,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 1,14</t>
+          <t>-14,67; 0,82</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 11,76</t>
+          <t>-1,21; 11,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 8,67</t>
+          <t>-4,26; 8,44</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-44,58; 94,35</t>
+          <t>-45,68; 96,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,2; 103,54</t>
+          <t>-42,66; 102,99</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 5,78</t>
+          <t>-10,19; 5,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 1,31</t>
+          <t>-16,19; 0,9</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 34,27</t>
+          <t>-3,02; 32,7</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 25,29</t>
+          <t>-10,55; 23,8</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>5,63; 18,68</t>
+          <t>6,19; 18,95</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,11; 15,13</t>
+          <t>3,46; 14,86</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 5,43</t>
+          <t>-0,95; 5,24</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,82; 6,51</t>
+          <t>0,59; 6,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,04; 13,56</t>
+          <t>2,99; 13,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,03; 13,74</t>
+          <t>3,17; 13,59</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>25,94; 115,03</t>
+          <t>26,49; 115,0</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>14,75; 93,29</t>
+          <t>16,89; 92,27</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,84</t>
+          <t>-0,99; 5,61</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,87; 7,12</t>
+          <t>0,61; 6,61</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,22; 26,7</t>
+          <t>5,59; 27,02</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5,48; 27,24</t>
+          <t>5,86; 26,82</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,47</t>
+          <t>2,56; 7,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,81; 7,21</t>
+          <t>2,53; 7,06</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-19,32; -10,06</t>
+          <t>-19,04; -10,33</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-20,81; -11,64</t>
+          <t>-20,57; -11,84</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,74; 7,3</t>
+          <t>1,4; 7,42</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,22</t>
+          <t>0,85; 6,56</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>28,61; 110,49</t>
+          <t>31,68; 117,0</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>33,35; 112,09</t>
+          <t>28,51; 104,88</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -12,51</t>
+          <t>-22,3; -12,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,64; -14,52</t>
+          <t>-24,41; -14,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>5,63; 25,44</t>
+          <t>4,29; 25,55</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>1,84; 21,33</t>
+          <t>2,7; 22,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,25</t>
+          <t>0,0; 16,43</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,87</t>
+          <t>0,0; 39,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-39,38; 26,61</t>
+          <t>-37,87; 26,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-51,49; 8,6</t>
+          <t>-57,88; 8,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 19,72</t>
+          <t>-2,77; 18,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 18,2</t>
+          <t>-2,35; 17,16</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 0,99</t>
+          <t>-4,64; 0,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 7,26</t>
+          <t>-1,11; 6,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,28; 36,52</t>
+          <t>15,9; 37,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 27,18</t>
+          <t>6,55; 27,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 13,5</t>
+          <t>3,46; 13,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 9,78</t>
+          <t>0,85; 9,59</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-54,82; 998,72</t>
+          <t>-56,59; 993,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,47; 1945,43</t>
+          <t>43,11; 1936,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 1503,18</t>
+          <t>-22,17; 1513,25</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 6,52</t>
+          <t>1,69; 6,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 7,46</t>
+          <t>1,56; 7,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 2,02</t>
+          <t>-29,84; 1,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 4,15</t>
+          <t>-27,5; 3,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 7,21</t>
+          <t>-0,25; 7,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 8,73</t>
+          <t>0,34; 8,35</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,01; 13,16</t>
+          <t>-69,18; 8,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-64,65; 22,72</t>
+          <t>-63,89; 19,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 238,52</t>
+          <t>-6,85; 223,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,05; 274,32</t>
+          <t>0,95; 249,46</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 4,41</t>
+          <t>-1,37; 4,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,07; 6,4</t>
+          <t>-0,11; 6,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,64; -14,11</t>
+          <t>-41,74; -13,19</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-54,98; -28,76</t>
+          <t>-55,86; -29,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 6,72</t>
+          <t>-4,38; 7,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 2,56</t>
+          <t>-8,11; 2,59</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-44,4; 430,44</t>
+          <t>-51,22; 402,12</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-14,35; 561,33</t>
+          <t>-18,4; 612,32</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-53,47; -22,68</t>
+          <t>-52,34; -20,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-71,21; -46,7</t>
+          <t>-72,19; -46,03</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,4; 50,47</t>
+          <t>-23,23; 55,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 20,87</t>
+          <t>-43,35; 20,82</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,74; 5,87</t>
+          <t>-3,92; 5,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 5,47</t>
+          <t>-4,78; 5,4</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,25; 4,62</t>
+          <t>-9,58; 4,95</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 0,82</t>
+          <t>-14,41; 1,24</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 11,52</t>
+          <t>-1,42; 11,26</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 8,44</t>
+          <t>-4,05; 8,53</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 96,92</t>
+          <t>-39,4; 100,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-42,66; 102,99</t>
+          <t>-45,74; 94,14</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 5,61</t>
+          <t>-10,5; 5,82</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-16,19; 0,9</t>
+          <t>-15,99; 1,5</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 32,7</t>
+          <t>-3,31; 31,68</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 23,8</t>
+          <t>-10,21; 24,08</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,19; 18,95</t>
+          <t>6,1; 18,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,46; 14,86</t>
+          <t>2,79; 15,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 5,24</t>
+          <t>-0,8; 4,99</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,59; 6,15</t>
+          <t>1,02; 6,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>2,99; 13,73</t>
+          <t>3,02; 13,27</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,17; 13,59</t>
+          <t>3,57; 13,67</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>26,49; 115,0</t>
+          <t>28,05; 114,69</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>16,89; 92,27</t>
+          <t>13,06; 93,57</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 5,61</t>
+          <t>-0,8; 5,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,61; 6,61</t>
+          <t>1,06; 7,17</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,59; 27,02</t>
+          <t>5,59; 26,48</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>5,86; 26,82</t>
+          <t>6,35; 26,96</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,53</t>
+          <t>2,53; 7,36</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,06</t>
+          <t>2,71; 7,44</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-19,04; -10,33</t>
+          <t>-19,22; -10,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-20,57; -11,84</t>
+          <t>-21,07; -11,76</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,4; 7,42</t>
+          <t>1,59; 7,31</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,56</t>
+          <t>0,49; 6,06</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>31,68; 117,0</t>
+          <t>29,53; 110,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>28,51; 104,88</t>
+          <t>30,53; 111,31</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-22,3; -12,79</t>
+          <t>-22,67; -12,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-24,41; -14,83</t>
+          <t>-24,95; -14,62</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>4,29; 25,55</t>
+          <t>4,97; 25,24</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,7; 22,95</t>
+          <t>1,68; 21,29</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P74B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Edad-trans_camb.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -747,7 +747,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -903,7 +903,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1215,7 +1215,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1381,32 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>9,66</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>9,19</t>
+          <t>8,67</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>8,41</t>
+          <t>5,72</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>8,07</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>6,1; 18,54</t>
+          <t>2,18; 17,72</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>2,79; 15,23</t>
+          <t>1,47; 16,01</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 4,99</t>
+          <t>-3,25; 4,6</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,02; 6,64</t>
+          <t>0,52; 6,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,02; 13,27</t>
+          <t>-0,66; 11,64</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,57; 13,67</t>
+          <t>2,31; 14,04</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>64,86%</t>
+          <t>51,06%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>48,13%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>15,79%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>15,05%</t>
         </is>
       </c>
     </row>
@@ -1495,39 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>28,05; 114,69</t>
+          <t>7,75; 113,66</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>13,06; 93,57</t>
+          <t>6,76; 105,47</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 5,38</t>
+          <t>-3,35; 4,88</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>1,06; 7,17</t>
+          <t>0,53; 7,06</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>5,59; 26,48</t>
+          <t>-1,03; 23,12</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>6,35; 26,96</t>
+          <t>3,87; 28,01</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1537,32 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>16,15</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-14,8</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-16,76</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>4,5</t>
+          <t>12,26</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>9,76</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,36</t>
+          <t>5,87; 26,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,44</t>
+          <t>-0,58; 19,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -10,15</t>
+          <t>0,29; 9,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -11,76</t>
+          <t>-1,35; 9,48</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,31</t>
+          <t>3,68; 20,7</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,06</t>
+          <t>1,32; 17,31</t>
         </is>
       </c>
     </row>
@@ -1613,32 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>66,12%</t>
+          <t>83,29%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>64,58%</t>
+          <t>51,44%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-17,85%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-20,22%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>23,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>11,53%</t>
+          <t>18,55%</t>
         </is>
       </c>
     </row>
@@ -1651,44 +1651,201 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>22,61; 189,65</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 142,5</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>0,3; 10,96</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>-1,28; 11,08</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 43,45</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 35,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>5,0</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,89</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-14,8</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-16,76</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>4,5</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>3,49</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>2,53; 7,36</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 7,44</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-19,22; -10,15</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-21,07; -11,76</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>1,59; 7,31</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 6,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>66,12%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>64,58%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-17,85%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-20,22%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>14,85%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>11,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>29,53; 110,76</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>30,53; 111,31</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
         <is>
           <t>-22,67; -12,58</t>
         </is>
       </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-24,95; -14,62</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>4,97; 25,24</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
         <is>
           <t>1,68; 21,29</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="C1:D1"/>

--- a/data/trans_camb/P74B-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P74B-Edad-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,43</t>
+          <t>0,0; 20,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,19</t>
+          <t>0,0; 38,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-37,87; 26,69</t>
+          <t>-36,04; 29,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-57,88; 8,65</t>
+          <t>-51,83; 8,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 18,36</t>
+          <t>-2,51; 18,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 17,16</t>
+          <t>-2,69; 16,88</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 0,86</t>
+          <t>-4,56; 0,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 6,94</t>
+          <t>-1,41; 6,92</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,9; 37,37</t>
+          <t>15,95; 36,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,55; 27,91</t>
+          <t>5,81; 27,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,46; 13,24</t>
+          <t>3,01; 13,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,85; 9,59</t>
+          <t>1,36; 9,61</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-56,59; 993,3</t>
+          <t>-75,17; 1130,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -891,12 +891,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>43,11; 1936,48</t>
+          <t>12,32; 2088,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 1513,25</t>
+          <t>-4,93; 1577,4</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 6,5</t>
+          <t>1,34; 6,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 7,86</t>
+          <t>1,64; 8,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 1,45</t>
+          <t>-27,36; 3,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 3,0</t>
+          <t>-25,9; 6,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 7,3</t>
+          <t>-0,15; 7,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,34; 8,35</t>
+          <t>-0,12; 8,09</t>
         </is>
       </c>
     </row>
@@ -1037,22 +1037,22 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,18; 8,51</t>
+          <t>-66,46; 21,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 19,33</t>
+          <t>-62,96; 37,51</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 223,64</t>
+          <t>-5,15; 248,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,95; 249,46</t>
+          <t>-7,43; 268,15</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 4,55</t>
+          <t>-1,31; 4,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 6,42</t>
+          <t>-0,02; 6,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-41,74; -13,19</t>
+          <t>-41,63; -13,42</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-55,86; -29,25</t>
+          <t>-55,26; -29,05</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 7,1</t>
+          <t>-4,38; 7,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 2,59</t>
+          <t>-7,5; 3,16</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-51,22; 402,12</t>
+          <t>-48,88; 412,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,4; 612,32</t>
+          <t>-18,89; 587,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-52,34; -20,57</t>
+          <t>-52,75; -20,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-72,19; -46,03</t>
+          <t>-71,26; -45,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 55,63</t>
+          <t>-25,06; 58,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-43,35; 20,82</t>
+          <t>-41,05; 26,91</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 5,88</t>
+          <t>-4,89; 5,32</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 5,4</t>
+          <t>-4,51; 5,42</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-9,58; 4,95</t>
+          <t>-8,75; 4,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-14,41; 1,24</t>
+          <t>-14,37; 1,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 11,26</t>
+          <t>-0,77; 11,74</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 8,53</t>
+          <t>-4,05; 8,93</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1339,32 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-39,4; 100,52</t>
+          <t>-44,56; 86,83</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-45,74; 94,14</t>
+          <t>-44,83; 93,02</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,5; 5,82</t>
+          <t>-9,66; 5,22</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 1,5</t>
+          <t>-15,89; 1,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 31,68</t>
+          <t>-2,08; 34,08</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-10,21; 24,08</t>
+          <t>-9,99; 26,0</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,18; 17,72</t>
+          <t>1,26; 17,54</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,47; 16,01</t>
+          <t>1,42; 15,6</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,6</t>
+          <t>-3,71; 4,46</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,54</t>
+          <t>0,49; 6,41</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 11,64</t>
+          <t>-0,9; 12,31</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,31; 14,04</t>
+          <t>2,01; 14,14</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1495,32 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>7,75; 113,66</t>
+          <t>2,94; 110,39</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>6,76; 105,47</t>
+          <t>4,71; 101,74</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,88</t>
+          <t>-3,76; 4,76</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,06</t>
+          <t>0,51; 6,93</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 23,12</t>
+          <t>-1,63; 24,64</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>3,87; 28,01</t>
+          <t>3,6; 28,02</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>5,87; 26,9</t>
+          <t>4,46; 25,59</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 19,4</t>
+          <t>0,2; 19,33</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,29; 9,84</t>
+          <t>0,32; 10,81</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 9,48</t>
+          <t>-0,93; 9,75</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,68; 20,7</t>
+          <t>2,91; 20,45</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,32; 17,31</t>
+          <t>1,22; 17,55</t>
         </is>
       </c>
     </row>
@@ -1651,32 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>22,61; 189,65</t>
+          <t>17,37; 173,01</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 142,5</t>
+          <t>0,1; 140,87</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,3; 10,96</t>
+          <t>0,32; 12,2</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 11,08</t>
+          <t>-0,92; 11,1</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>6,33; 43,45</t>
+          <t>5,44; 42,87</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2,26; 35,97</t>
+          <t>2,06; 36,21</t>
         </is>
       </c>
     </row>
@@ -1731,32 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,36</t>
+          <t>2,54; 7,45</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,44</t>
+          <t>2,71; 7,22</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-19,22; -10,15</t>
+          <t>-19,0; -10,59</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -11,76</t>
+          <t>-21,3; -12,08</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>1,59; 7,31</t>
+          <t>1,78; 7,47</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,06</t>
+          <t>0,51; 6,24</t>
         </is>
       </c>
     </row>
@@ -1807,32 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>29,53; 110,76</t>
+          <t>28,74; 115,32</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>30,53; 111,31</t>
+          <t>31,16; 111,49</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-22,67; -12,58</t>
+          <t>-22,32; -12,99</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-24,95; -14,62</t>
+          <t>-25,17; -14,89</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>4,97; 25,24</t>
+          <t>5,59; 25,72</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>1,68; 21,29</t>
+          <t>1,58; 21,55</t>
         </is>
       </c>
     </row>
